--- a/data/raw_data/2024/permits-by-nationality-2024.xlsx
+++ b/data/raw_data/2024/permits-by-nationality-2024.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13ACC8-5509-4697-A267-E4399DDB74A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296BA1A6-55FE-444D-83BC-3EBDCD40DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{F8B3E20F-0161-40AD-92B4-1291962EB9A1}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8B3E20F-0161-40AD-92B4-1291962EB9A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$142</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>Issued</t>
   </si>
@@ -104,15 +105,9 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -143,15 +138,9 @@
     <t>Congo</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -212,18 +201,12 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -233,9 +216,6 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -251,27 +231,12 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -284,9 +249,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -305,9 +267,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -344,9 +303,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -359,15 +315,9 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -398,24 +348,9 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Tibet</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -425,15 +360,9 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -443,9 +372,6 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -471,13 +397,67 @@
   </si>
   <si>
     <t>Nationality</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,20 +873,20 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -918,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -932,7 +912,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -944,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -956,7 +936,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -968,7 +948,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -978,7 +958,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -988,7 +968,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1032,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1068,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1080,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1090,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1152,9 +1132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1162,9 +1142,9 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>4553</v>
@@ -1176,9 +1156,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -1188,9 +1168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -1198,9 +1178,9 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -1208,9 +1188,9 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>33</v>
@@ -1218,9 +1198,9 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
@@ -1230,9 +1210,9 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>248</v>
@@ -1244,9 +1224,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>159</v>
@@ -1258,9 +1238,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>1962</v>
@@ -1272,9 +1252,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>107</v>
@@ -1286,9 +1266,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1296,9 +1276,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>10</v>
@@ -1306,9 +1286,9 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B34" s="3">
         <v>9</v>
@@ -1318,9 +1298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>52</v>
@@ -1332,9 +1312,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -1342,9 +1322,9 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>5</v>
@@ -1352,9 +1332,9 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -1362,9 +1342,9 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -1374,9 +1354,9 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>12</v>
@@ -1384,9 +1364,9 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
         <v>314</v>
@@ -1398,9 +1378,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>44</v>
@@ -1412,9 +1392,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -1422,9 +1402,9 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -1432,9 +1412,9 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>14</v>
@@ -1444,9 +1424,9 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -1454,9 +1434,9 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -1464,9 +1444,9 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
@@ -1474,9 +1454,9 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3">
         <v>15</v>
@@ -1486,9 +1466,9 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>352</v>
@@ -1500,9 +1480,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -1510,9 +1490,9 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3">
         <v>11</v>
@@ -1522,9 +1502,9 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -1532,9 +1512,9 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3">
         <v>14</v>
@@ -1544,9 +1524,9 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -1554,9 +1534,9 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3">
         <v>27</v>
@@ -1566,9 +1546,9 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3">
         <v>31</v>
@@ -1578,9 +1558,9 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3">
         <v>13566</v>
@@ -1592,9 +1572,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3">
         <v>91</v>
@@ -1606,9 +1586,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B60" s="3">
         <v>103</v>
@@ -1620,9 +1600,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3">
         <v>14</v>
@@ -1630,9 +1610,9 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1640,9 +1620,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3">
         <v>321</v>
@@ -1652,9 +1632,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -1662,9 +1642,9 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B65" s="3">
         <v>6</v>
@@ -1672,9 +1652,9 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3">
         <v>199</v>
@@ -1686,9 +1666,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B67" s="3">
         <v>50</v>
@@ -1700,9 +1680,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3">
         <v>27</v>
@@ -1712,9 +1692,9 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B69" s="3">
         <v>198</v>
@@ -1726,9 +1706,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -1738,9 +1718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B71" s="3">
         <v>169</v>
@@ -1752,9 +1732,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3">
         <v>8</v>
@@ -1766,9 +1746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3">
         <v>17</v>
@@ -1778,9 +1758,9 @@
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
@@ -1790,9 +1770,9 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B75" s="3">
         <v>9</v>
@@ -1804,9 +1784,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -1814,9 +1794,9 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -1824,9 +1804,9 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B78" s="3">
         <v>65</v>
@@ -1838,9 +1818,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3">
         <v>12</v>
@@ -1852,9 +1832,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B80" s="3">
         <v>9</v>
@@ -1864,9 +1844,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>6</v>
@@ -1874,9 +1854,9 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3">
         <v>33</v>
@@ -1886,9 +1866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3">
         <v>662</v>
@@ -1900,9 +1880,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -1910,9 +1890,9 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
@@ -1920,9 +1900,9 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B86" s="3">
         <v>38</v>
@@ -1934,9 +1914,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B87" s="3">
         <v>427</v>
@@ -1948,9 +1928,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B88" s="3">
         <v>37</v>
@@ -1962,9 +1942,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B89" s="3">
         <v>72</v>
@@ -1974,9 +1954,9 @@
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B90" s="3">
         <v>88</v>
@@ -1988,9 +1968,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B91" s="3">
         <v>5</v>
@@ -1998,9 +1978,9 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B92" s="3">
         <v>15</v>
@@ -2010,9 +1990,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B93" s="3">
         <v>10</v>
@@ -2020,9 +2000,9 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B94" s="3">
         <v>357</v>
@@ -2034,9 +2014,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B95" s="3">
         <v>90</v>
@@ -2048,9 +2028,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
@@ -2060,9 +2040,9 @@
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3">
         <v>974</v>
@@ -2074,9 +2054,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B98" s="3">
         <v>7</v>
@@ -2086,9 +2066,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B99" s="3">
         <v>16</v>
@@ -2098,9 +2078,9 @@
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B100" s="3">
         <v>1742</v>
@@ -2112,9 +2092,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3">
         <v>28</v>
@@ -2122,9 +2102,9 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3">
         <v>14</v>
@@ -2134,9 +2114,9 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B103" s="3">
         <v>24</v>
@@ -2146,9 +2126,9 @@
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B104" s="3">
         <v>20</v>
@@ -2160,9 +2140,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3">
         <v>4049</v>
@@ -2174,9 +2154,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B106" s="3">
         <v>362</v>
@@ -2188,9 +2168,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B107" s="3">
         <v>4</v>
@@ -2198,9 +2178,9 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
@@ -2208,9 +2188,9 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B109" s="3">
         <v>19</v>
@@ -2222,9 +2202,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B110" s="3">
         <v>4</v>
@@ -2232,9 +2212,9 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B111" s="3">
         <v>24</v>
@@ -2246,9 +2226,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B112" s="3">
         <v>3</v>
@@ -2258,9 +2238,9 @@
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B113" s="3">
         <v>5</v>
@@ -2268,9 +2248,9 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B114" s="3">
         <v>71</v>
@@ -2282,9 +2262,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B115" s="3">
         <v>4</v>
@@ -2292,9 +2272,9 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B116" s="3">
         <v>1631</v>
@@ -2306,9 +2286,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B117" s="3">
         <v>633</v>
@@ -2320,9 +2300,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B118" s="3">
         <v>332</v>
@@ -2334,9 +2314,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B119" s="3">
         <v>10</v>
@@ -2346,9 +2326,9 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B120" s="3">
         <v>18</v>
@@ -2360,9 +2340,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B121" s="3">
         <v>139</v>
@@ -2374,9 +2354,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B122" s="3">
         <v>25</v>
@@ -2386,9 +2366,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B123" s="3">
         <v>472</v>
@@ -2400,9 +2380,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -2410,9 +2390,9 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -2420,9 +2400,9 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B126" s="3">
         <v>20</v>
@@ -2432,9 +2412,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B127" s="3">
         <v>61</v>
@@ -2444,9 +2424,9 @@
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B128" s="3">
         <v>430</v>
@@ -2458,9 +2438,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B129" s="3">
         <v>2</v>
@@ -2468,9 +2448,9 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -2480,9 +2460,9 @@
       </c>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B131" s="3">
         <v>72</v>
@@ -2492,9 +2472,9 @@
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B132" s="3">
         <v>141</v>
@@ -2506,9 +2486,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B133" s="3">
         <v>2</v>
@@ -2516,9 +2496,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="3">
         <v>1119</v>
@@ -2530,9 +2510,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B135" s="3">
         <v>20</v>
@@ -2542,9 +2522,9 @@
       </c>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B136" s="3">
         <v>4</v>
@@ -2552,9 +2532,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B137" s="3">
         <v>12</v>
@@ -2564,9 +2544,9 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B138" s="3">
         <v>23</v>
@@ -2578,9 +2558,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3">
         <v>252</v>
@@ -2592,9 +2572,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B140" s="3">
         <v>4</v>
@@ -2602,9 +2582,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B141" s="3">
         <v>20</v>
@@ -2612,9 +2592,9 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B142" s="3">
         <v>971</v>
@@ -2626,65 +2606,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D142" xr:uid="{73CC59B9-CB6E-4524-8094-DF7E8B31A858}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m02c691f3efa402dab5cbaa8c240a9e7>
-    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Value>5</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
-    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
-        </TermInfo>
-      </Terms>
-    </h1f8bb4843d6459a8b809123185593c7>
-    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </fbaa881fc4ae443f9fdafbdd527793df>
-    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
-    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nb1b8a72855341e18dd75ce464e281f2>
-    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
-    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
-        </TermInfo>
-      </Terms>
-    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="163" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="85309ccccff480a81818d539d3482032">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3659751ca266c6383aa8c59766733bc" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
@@ -2893,31 +2826,55 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D559D719-C23D-45D3-BF72-E85309A45D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24036389-72B7-4057-A20B-B796712D4AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m02c691f3efa402dab5cbaa8c240a9e7>
+    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Value>5</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
+    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
+        </TermInfo>
+      </Terms>
+    </h1f8bb4843d6459a8b809123185593c7>
+    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </fbaa881fc4ae443f9fdafbdd527793df>
+    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nb1b8a72855341e18dd75ce464e281f2>
+    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
+        </TermInfo>
+      </Terms>
+    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF90E91-00BE-4085-86F7-797E6498E616}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2933,4 +2890,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24036389-72B7-4057-A20B-B796712D4AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D559D719-C23D-45D3-BF72-E85309A45D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>